--- a/ai-note/files/推理模型.xlsx
+++ b/ai-note/files/推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -49,15 +49,27 @@
     <t xml:space="preserve">DeepSeek-R1-Distill-Qwen-1.5B</t>
   </si>
   <si>
+    <t xml:space="preserve">28.9（52.7）</t>
+  </si>
+  <si>
     <t xml:space="preserve">DeepSeek-R1-Distill-Qwen-7B</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5（83.3）</t>
+  </si>
+  <si>
     <t xml:space="preserve">DeepSeek-R1-Distill-Qwen-14B</t>
   </si>
   <si>
+    <t xml:space="preserve">69.7（80）</t>
+  </si>
+  <si>
     <t xml:space="preserve">DeepSeek-R1-Distill-Qwen-32B</t>
   </si>
   <si>
+    <t xml:space="preserve">72.6（83.3）</t>
+  </si>
+  <si>
     <t xml:space="preserve">QwQ-32B-Preview</t>
   </si>
   <si>
@@ -70,6 +82,9 @@
     <t xml:space="preserve">o1 mini</t>
   </si>
   <si>
+    <t xml:space="preserve">63.6（80）</t>
+  </si>
+  <si>
     <t xml:space="preserve">o3</t>
   </si>
   <si>
@@ -91,7 +106,25 @@
     <t xml:space="preserve">Grok3 Reasoning Beta</t>
   </si>
   <si>
+    <t xml:space="preserve">83（93）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80（85）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71（79）</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grok3 mini Reasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90（96）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81（84）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75（80）</t>
   </si>
 </sst>
 </file>
@@ -425,7 +458,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -489,8 +522,8 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>28.9</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>33.8</v>
@@ -504,10 +537,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>55.5</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>49.1</v>
@@ -521,10 +554,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>69.7</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>59.1</v>
@@ -538,10 +571,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>72.6</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>62.1</v>
@@ -561,7 +594,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>44</v>
@@ -578,7 +611,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>73.3</v>
@@ -592,7 +625,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>83.3</v>
@@ -615,10 +648,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>63.6</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>60</v>
@@ -638,7 +671,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>96.7</v>
@@ -652,7 +685,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>79.6</v>
@@ -669,7 +702,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>87.3</v>
@@ -686,7 +719,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>39.2</v>
@@ -706,7 +739,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>52</v>
@@ -720,7 +753,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>40</v>
@@ -734,30 +767,30 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>79</v>
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>80</v>
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ai-note/files/推理模型.xlsx
+++ b/ai-note/files/推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">72.6（83.3）</t>
   </si>
   <si>
-    <t xml:space="preserve">QwQ-32B-Preview</t>
+    <t xml:space="preserve">QwQ Max Preview</t>
   </si>
   <si>
     <t xml:space="preserve">Gemini 2.0 Flash Thinking exp</t>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t xml:space="preserve">75（80）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimi k1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claude 3.7 Sonnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3(80.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.2(84.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.3(70.3)</t>
   </si>
 </sst>
 </file>
@@ -134,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,23 +185,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,14 +253,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,15 +448,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.97"/>
@@ -512,13 +505,13 @@
         <v>96.3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>65.9</v>
+        <v>64.3</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>49.2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -535,7 +528,7 @@
         <v>16.9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -552,7 +545,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -569,7 +562,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -596,17 +589,8 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>1316</v>
-      </c>
       <c r="F7" s="1" t="n">
-        <v>41.9</v>
+        <v>66.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,13 +624,13 @@
         <v>96.6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>71</v>
+        <v>71.8</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>48.9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -697,7 +681,7 @@
         <v>2036</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>67.3</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,7 +698,7 @@
         <v>2130</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>68.8</v>
+        <v>73.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,7 +722,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="n">
@@ -752,7 +736,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1" t="n">
@@ -765,8 +749,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -779,8 +763,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -791,6 +775,34 @@
       </c>
       <c r="F18" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
